--- a/VRNN_theano_version/output/vrnn-gen-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-gen-dataport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="187">
   <si>
     <t>epochs</t>
   </si>
@@ -336,6 +336,36 @@
     <t>18-05-13_01-09</t>
   </si>
   <si>
+    <t>0:0.001,</t>
+  </si>
+  <si>
+    <t>18-05-15_11-11</t>
+  </si>
+  <si>
+    <t>0:0.01, 30:0.001</t>
+  </si>
+  <si>
+    <t>18-05-16_10-46</t>
+  </si>
+  <si>
+    <t>0:0.01,</t>
+  </si>
+  <si>
+    <t>18-05-16_21-29</t>
+  </si>
+  <si>
+    <t>18-05-16_21-41</t>
+  </si>
+  <si>
+    <t>18-05-17_10-20</t>
+  </si>
+  <si>
+    <t>18-05-17_10-27</t>
+  </si>
+  <si>
+    <t>0:0.001, 150:0.0001</t>
+  </si>
+  <si>
     <t>6-kitchenapp</t>
   </si>
   <si>
@@ -508,9 +538,6 @@
   </si>
   <si>
     <t>18-04-23_20-52_app3</t>
-  </si>
-  <si>
-    <t>0:0.01,</t>
   </si>
   <si>
     <t>18-04-24_10-55_app3</t>
@@ -563,7 +590,7 @@
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -584,11 +611,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -684,7 +706,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -765,10 +787,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H75" activeCellId="0" sqref="H75"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="49:50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1986,7 +2008,7 @@
       <c r="I32" s="0" t="n">
         <v>-91</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="2" t="n">
         <v>0.23</v>
       </c>
       <c r="K32" s="0" t="n">
@@ -2816,7 +2838,7 @@
         <v>105</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="0" t="n">
@@ -2841,1172 +2863,1237 @@
         <v>150</v>
       </c>
     </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W50" s="0" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>305</v>
+        <v>10.77</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>444</v>
+        <v>2.02</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>305</v>
+        <v>10.77</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>443</v>
+        <v>1.9</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>1.29</v>
+        <v>1.02</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>23</v>
+        <v>110</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="V52" s="0" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C53" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>-67.91</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>-67.91</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="N53" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>-17</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="N53" s="0" t="s">
-        <v>23</v>
+      <c r="P53" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="V53" s="0" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="C54" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>-72</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>-72</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="N54" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I54" s="0" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J54" s="0" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K54" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M54" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="N54" s="0" t="s">
-        <v>29</v>
+      <c r="P54" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="S54" s="0" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="T54" s="0" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="U54" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="V54" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>-18</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>1.026</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>-18</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="V55" s="0" t="n">
         <v>150</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>-155</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>-171</v>
-      </c>
-      <c r="J55" s="0" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M55" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="N55" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P55" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q55" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="R55" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S55" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="T55" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="U55" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="V55" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>-133</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <v>-133</v>
-      </c>
-      <c r="J56" s="0" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="N56" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="P56" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q56" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="R56" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S56" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="T56" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="U56" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="V56" s="0" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>1E-005</v>
+        <v>0.0001</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>-109</v>
+        <v>305</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>1.99</v>
+        <v>488</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>3.9</v>
+        <v>444</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.79</v>
+        <v>1.29</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>-109</v>
+        <v>305</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>2.86</v>
+        <v>443</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>0.72</v>
+        <v>1.29</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="O57" s="1"/>
-      <c r="P57" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q57" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="R57" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S57" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="T57" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="U57" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="V57" s="0" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>-77</v>
+        <v>-17</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>1.17</v>
+        <v>2.64</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>1.08</v>
+        <v>0.82</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>-77</v>
+        <v>-17</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>2.01</v>
+        <v>2.91</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>0.56</v>
+        <v>0.79</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="O58" s="1"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>1E-005</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>0.57</v>
+        <v>4.39</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>1.2</v>
+        <v>0.149</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>2.62</v>
+        <v>2.94</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>74</v>
+        <v>0.66</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0.66</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>118</v>
+        <v>29</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1E-005</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>-135</v>
+        <v>-155</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>4.49</v>
+        <v>4.37</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>2.72</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>74</v>
+        <v>0.55</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>-171</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>0.49</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="O60" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="V60" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="n">
         <v>200</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>1E-005</v>
       </c>
-      <c r="E61" s="2" t="n">
-        <v>-165</v>
+      <c r="E61" s="0" t="n">
+        <v>-133</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>1.51</v>
+        <v>7.32</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>2.85</v>
+        <v>3.27</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>74</v>
+        <v>0.72</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>-133</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>0.49</v>
       </c>
       <c r="M61" s="0" t="s">
         <v>121</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>29</v>
+        <v>122</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0.01</v>
+        <v>1E-005</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>31.8</v>
+        <v>-109</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>0.83</v>
+        <v>3.9</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.36</v>
+        <v>0.79</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>-112</v>
+        <v>-109</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.82</v>
+        <v>2.86</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>0.24</v>
+        <v>0.72</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O62" s="1"/>
+      <c r="P62" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>-130.83</v>
+        <v>-77</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G63" s="2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="H63" s="2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I63" s="2" t="n">
-        <v>-181</v>
+        <v>1.17</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>-77</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0.43</v>
+        <v>2.01</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>0.17</v>
+        <v>0.56</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="P63" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q63" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="R63" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="S63" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="T63" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="U63" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="V63" s="0" t="n">
-        <v>150</v>
-      </c>
+      <c r="C65" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>-135</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="O65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="E66" s="0" t="n">
-        <v>-37</v>
+        <v>1E-005</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>-165</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0.98</v>
+        <v>2.85</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="I66" s="0" t="n">
-        <v>-46</v>
-      </c>
-      <c r="J66" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K66" s="0" t="n">
-        <v>0.42</v>
+        <v>0.66</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="P66" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q66" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="R66" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S66" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="T66" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="U66" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="V66" s="0" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>66</v>
+        <v>31.8</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>2E-005</v>
+        <v>0</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.237</v>
+        <v>0.83</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.237</v>
+        <v>0.36</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>-89</v>
+        <v>-112</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>0.237</v>
+        <v>0.82</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>0.161</v>
+        <v>0.24</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>-130.83</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>-181</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>0.17</v>
+      </c>
       <c r="M68" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="U68" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="V68" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="E70" s="0" t="n">
-        <v>-19</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G70" s="0" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="H70" s="0" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="I70" s="0" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J70" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K70" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M70" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="N70" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q70" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="R70" s="0" t="n">
+      <c r="E71" s="0" t="n">
+        <v>-37</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>-46</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q71" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="S70" s="0" t="n">
+      <c r="R71" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="T71" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="T70" s="0" t="n">
+      <c r="U71" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="U70" s="0" t="n">
+      <c r="V71" s="0" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1E-005</v>
+        <v>0.01</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>0.07</v>
+        <v>2E-005</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>2.5</v>
+        <v>0.237</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.96</v>
+        <v>0.237</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>156</v>
+        <v>-89</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>2.5</v>
+        <v>0.237</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>0.96</v>
+        <v>0.161</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>29</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="E73" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="G73" s="0" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="H73" s="0" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="I73" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" s="0" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K73" s="0" t="n">
-        <v>0.84</v>
-      </c>
       <c r="M73" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="E74" s="0" t="n">
-        <v>-93</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G74" s="0" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="H74" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I74" s="0" t="n">
-        <v>-93</v>
-      </c>
-      <c r="J74" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K74" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M74" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="N74" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>-128</v>
+        <v>-19</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>1.37</v>
+        <v>0.25</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H75" s="2" t="n">
-        <v>0.37</v>
+        <v>1.04</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>0.43</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>-235</v>
+        <v>-60</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P75" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R75" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="Q75" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="R75" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="S75" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="T75" s="0" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="U75" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="V75" s="0" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="E76" s="2" t="n">
-        <v>-169</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G76" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="H76" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>-262</v>
-      </c>
-      <c r="J76" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K76" s="0" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M76" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="N76" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P76" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q76" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="R76" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="S76" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="T76" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="U76" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="V76" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0.0001</v>
+        <v>1E-005</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>-77</v>
+        <v>156</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>1.69</v>
+        <v>0.07</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0.82</v>
+        <v>2.5</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.38</v>
+        <v>0.96</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>-255</v>
+        <v>156</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>0.82</v>
+        <v>2.5</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>0.36</v>
+        <v>0.96</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P77" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q77" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="R77" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="S77" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="T77" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="U77" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="V77" s="0" t="n">
-        <v>250</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0.0001</v>
+        <v>1E-005</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>2.56</v>
+        <v>0.16</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>0.89</v>
+        <v>2.87</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.44</v>
+        <v>0.84</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>-198</v>
+        <v>11</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>0.79</v>
+        <v>2.67</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>0.34</v>
+        <v>0.84</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P78" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q78" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="R78" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="S78" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="T78" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="U78" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="V78" s="0" t="n">
-        <v>250</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>32.534</v>
+        <v>-93</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G79" s="2" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>2.31</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.48</v>
+        <v>0.75</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>-9.41</v>
+        <v>-93</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>0.51</v>
+        <v>2.3</v>
       </c>
       <c r="K79" s="0" t="n">
-        <v>0.39</v>
+        <v>0.75</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="P79" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q79" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="R79" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="S79" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="T79" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="U79" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="V79" s="0" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>13.6142</v>
+        <v>-128</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>0.0002</v>
+        <v>1.37</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H80" s="0" t="n">
-        <v>0.52</v>
+        <v>0.9</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>0.37</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>-33</v>
+        <v>-235</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>0.56</v>
+        <v>0.9</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="P80" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q80" s="0" t="n">
         <v>80</v>
@@ -4024,6 +4111,301 @@
         <v>250</v>
       </c>
       <c r="V80" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>-169</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>-262</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="N81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="S81" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="U81" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="V81" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>-77</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>-255</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="N82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R82" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="S82" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="T82" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="U82" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="V82" s="0" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>-198</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="N83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P83" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q83" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R83" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="S83" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="T83" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="U83" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="V83" s="0" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>32.534</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>-9.41</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="P84" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q84" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R84" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="S84" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T84" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="U84" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="V84" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>13.6142</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>-33</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="P85" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q85" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R85" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="S85" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T85" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="U85" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="V85" s="0" t="n">
         <v>150</v>
       </c>
     </row>
@@ -4045,8 +4427,8 @@
   </sheetPr>
   <dimension ref="A1:U65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q8" activeCellId="1" sqref="49:50 Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65"/>
@@ -4060,7 +4442,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
@@ -4128,7 +4510,7 @@
         <v>2859</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>100</v>
@@ -4158,10 +4540,10 @@
         <v>0.25</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>80</v>
@@ -4190,7 +4572,7 @@
         <v>2859</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>100</v>
@@ -4220,10 +4602,10 @@
         <v>0.25</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>150</v>
@@ -4246,7 +4628,7 @@
         <v>2859</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>100</v>
@@ -4276,10 +4658,10 @@
         <v>0.19</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>60</v>
@@ -4308,7 +4690,7 @@
         <v>2859</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>200</v>
@@ -4338,10 +4720,10 @@
         <v>0.27</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>150</v>
@@ -4364,7 +4746,7 @@
         <v>2859</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>200</v>
@@ -4394,10 +4776,10 @@
         <v>0.23</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4405,7 +4787,7 @@
         <v>2859</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>300</v>
@@ -4435,10 +4817,10 @@
         <v>0.31</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>150</v>
@@ -4461,7 +4843,7 @@
         <v>2859</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>300</v>
@@ -4491,10 +4873,10 @@
         <v>0.23</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>150</v>
@@ -4527,7 +4909,7 @@
         <v>6990</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>100</v>
@@ -4557,10 +4939,10 @@
         <v>0.3</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,7 +4950,7 @@
         <v>6990</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>120</v>
@@ -4612,10 +4994,10 @@
         <v>0.14</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,10 +5035,10 @@
         <v>0.21</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,10 +5076,10 @@
         <v>0.13</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>80</v>
@@ -4756,10 +5138,10 @@
         <v>0.08</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,10 +5179,10 @@
         <v>0.22</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>100</v>
@@ -4853,10 +5235,10 @@
         <v>0.09</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>80</v>
@@ -4915,10 +5297,10 @@
         <v>0.11</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>80</v>
@@ -4962,10 +5344,10 @@
         <v>0.14</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,10 +5385,10 @@
         <v>0.19</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5044,10 +5426,10 @@
         <v>0.31</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,10 +5467,10 @@
         <v>0.34</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>100</v>

--- a/VRNN_theano_version/output/vrnn-gen-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-gen-dataport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="176" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="153" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="all-builds" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="190">
   <si>
     <t>epochs</t>
   </si>
@@ -81,6 +81,9 @@
     <t>z2s_dim</t>
   </si>
   <si>
+    <t>seqLen</t>
+  </si>
+  <si>
     <t>3-clotheswasher1</t>
   </si>
   <si>
@@ -364,6 +367,12 @@
   </si>
   <si>
     <t>0:0.001, 150:0.0001</t>
+  </si>
+  <si>
+    <t>18-05-19_14-08</t>
+  </si>
+  <si>
+    <t>18-05-19_14-19</t>
   </si>
   <si>
     <t>6-kitchenapp</t>
@@ -583,12 +592,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="MM:SS.00"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -661,7 +671,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -678,6 +688,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -686,7 +700,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -698,11 +712,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -787,10 +805,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W85"/>
+  <dimension ref="A1:X88"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="49:50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -880,13 +898,16 @@
       <c r="V1" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="X1" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.0001</v>
@@ -901,10 +922,10 @@
         <v>0.66</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,7 +933,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.0001</v>
@@ -936,10 +957,10 @@
         <v>0.23</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,7 +968,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.0001</v>
@@ -971,10 +992,10 @@
         <v>0.33</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>100</v>
@@ -997,7 +1018,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1E-005</v>
@@ -1012,10 +1033,10 @@
         <v>0.6</v>
       </c>
       <c r="M5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,7 +1044,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1E-005</v>
@@ -1047,10 +1068,10 @@
         <v>0.68</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,7 +1079,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0.0001</v>
@@ -1082,10 +1103,10 @@
         <v>0.21</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O7" s="1"/>
     </row>
@@ -1094,7 +1115,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0.0001</v>
@@ -1118,10 +1139,10 @@
         <v>0.24</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1131,7 +1152,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0.0001</v>
@@ -1149,10 +1170,10 @@
         <v>0.24</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,7 +1181,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0.001</v>
@@ -1187,10 +1208,10 @@
         <v>0.235</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O10" s="1"/>
     </row>
@@ -1199,7 +1220,7 @@
         <v>200</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0.001</v>
@@ -1226,10 +1247,10 @@
         <v>0.129</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="0" t="n">
@@ -1259,7 +1280,7 @@
         <v>300</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0.001</v>
@@ -1286,10 +1307,10 @@
         <v>0.14</v>
       </c>
       <c r="M12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="O12" s="1"/>
       <c r="R12" s="0" t="n">
@@ -1301,7 +1322,7 @@
         <v>300</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0.001</v>
@@ -1328,10 +1349,10 @@
         <v>0.157</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1341,7 +1362,7 @@
         <v>250</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0.001</v>
@@ -1368,10 +1389,10 @@
         <v>0.143</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="1"/>
       <c r="R14" s="0" t="n">
@@ -1383,7 +1404,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0.01</v>
@@ -1410,10 +1431,10 @@
         <v>0.195</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,7 +1442,7 @@
         <v>150</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0.01</v>
@@ -1448,10 +1469,10 @@
         <v>0.145</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="1"/>
     </row>
@@ -1460,7 +1481,7 @@
         <v>200</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0.01</v>
@@ -1487,10 +1508,10 @@
         <v>0.172</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="1"/>
     </row>
@@ -1499,37 +1520,37 @@
         <v>100</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1540,7 +1561,7 @@
         <v>250</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0.01</v>
@@ -1567,10 +1588,10 @@
         <v>0.152</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1580,7 +1601,7 @@
         <v>200</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0.01</v>
@@ -1607,14 +1628,14 @@
         <v>0.159</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="0" t="n">
         <v>120</v>
@@ -1640,7 +1661,7 @@
         <v>300</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0.01</v>
@@ -1667,10 +1688,10 @@
         <v>0.186</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1680,7 +1701,7 @@
         <v>200</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0.001</v>
@@ -1707,10 +1728,10 @@
         <v>0.168</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,7 +1739,7 @@
         <v>250</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0.001</v>
@@ -1745,10 +1766,10 @@
         <v>0.17</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O23" s="1"/>
     </row>
@@ -1757,7 +1778,7 @@
         <v>250</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0.001</v>
@@ -1784,10 +1805,10 @@
         <v>0.16</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O24" s="1"/>
     </row>
@@ -1796,7 +1817,7 @@
         <v>100</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0.001</v>
@@ -1813,7 +1834,7 @@
       <c r="H27" s="0" t="n">
         <v>0.46</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="2" t="n">
         <v>-204</v>
       </c>
       <c r="J27" s="0" t="n">
@@ -1823,10 +1844,10 @@
         <v>0.29</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,7 +1855,7 @@
         <v>100</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0.0001</v>
@@ -1861,10 +1882,10 @@
         <v>0.28</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,7 +1893,7 @@
         <v>200</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>0.0001</v>
@@ -1899,10 +1920,10 @@
         <v>0.27</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,7 +1931,7 @@
         <v>300</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>0.0001</v>
@@ -1937,10 +1958,10 @@
         <v>0.27</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O30" s="1"/>
     </row>
@@ -1949,7 +1970,7 @@
         <v>400</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>0.0001</v>
@@ -1976,10 +1997,10 @@
         <v>0.26</v>
       </c>
       <c r="M31" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="N31" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="O31" s="1"/>
     </row>
@@ -1988,12 +2009,12 @@
         <v>400</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="4" t="n">
         <v>-91</v>
       </c>
       <c r="F32" s="0" t="n">
@@ -2015,10 +2036,10 @@
         <v>0.21</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="0" t="n">
@@ -2048,7 +2069,7 @@
         <v>100</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0.0001</v>
@@ -2066,22 +2087,22 @@
         <v>303178</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,7 +2110,7 @@
         <v>100</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>1E-005</v>
@@ -2107,22 +2128,22 @@
         <v>293</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M34" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="O34" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="N34" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="O34" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,7 +2151,7 @@
         <v>400</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0.0001</v>
@@ -2157,10 +2178,10 @@
         <v>0.24</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P35" s="1"/>
     </row>
@@ -2169,7 +2190,7 @@
         <v>500</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0.0001</v>
@@ -2196,10 +2217,10 @@
         <v>0.25</v>
       </c>
       <c r="M36" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="N36" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="N36" s="0" t="s">
-        <v>81</v>
       </c>
       <c r="P36" s="1"/>
     </row>
@@ -2208,7 +2229,7 @@
         <v>100</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>0.1</v>
@@ -2235,10 +2256,10 @@
         <v>0.95</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,7 +2267,7 @@
         <v>100</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0.01</v>
@@ -2273,10 +2294,10 @@
         <v>0.274</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2284,7 +2305,7 @@
         <v>150</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>0.01</v>
@@ -2311,10 +2332,10 @@
         <v>0.205</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O39" s="1"/>
     </row>
@@ -2323,7 +2344,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0.01</v>
@@ -2350,10 +2371,10 @@
         <v>0.186</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2363,7 +2384,7 @@
         <v>250</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0.01</v>
@@ -2390,10 +2411,10 @@
         <v>0.17</v>
       </c>
       <c r="M41" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="N41" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="N41" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2403,7 +2424,7 @@
         <v>500</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0.0001</v>
@@ -2430,10 +2451,10 @@
         <v>0.21</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2443,7 +2464,7 @@
         <v>200</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0.01</v>
@@ -2470,14 +2491,14 @@
         <v>0.2</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O43" s="1"/>
-      <c r="P43" s="4" t="s">
-        <v>56</v>
+      <c r="P43" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="Q43" s="0" t="n">
         <v>180</v>
@@ -2503,7 +2524,7 @@
         <v>200</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>0.01</v>
@@ -2530,14 +2551,14 @@
         <v>0.2</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O44" s="1"/>
-      <c r="P44" s="4" t="s">
-        <v>56</v>
+      <c r="P44" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="Q44" s="0" t="n">
         <v>180</v>
@@ -2563,41 +2584,41 @@
         <v>100</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O45" s="1"/>
-      <c r="P45" s="4" t="s">
-        <v>56</v>
+      <c r="P45" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="Q45" s="0" t="n">
         <v>180</v>
@@ -2623,42 +2644,42 @@
         <v>250</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="E46" s="5" t="n">
+      <c r="E46" s="6" t="n">
         <v>-85</v>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G46" s="5" t="n">
+      <c r="G46" s="6" t="n">
         <v>0.3</v>
       </c>
-      <c r="H46" s="5" t="n">
+      <c r="H46" s="6" t="n">
         <v>0.19</v>
       </c>
-      <c r="I46" s="5" t="n">
+      <c r="I46" s="6" t="n">
         <v>-95</v>
       </c>
-      <c r="J46" s="5" t="n">
+      <c r="J46" s="6" t="n">
         <v>0.29</v>
       </c>
-      <c r="K46" s="5" t="n">
+      <c r="K46" s="6" t="n">
         <v>0.19</v>
       </c>
-      <c r="L46" s="5"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O46" s="1"/>
-      <c r="P46" s="4" t="s">
-        <v>56</v>
+      <c r="P46" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="Q46" s="0" t="n">
         <v>180</v>
@@ -2684,42 +2705,42 @@
         <v>300</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="E47" s="5" t="n">
+      <c r="E47" s="6" t="n">
         <v>-82</v>
       </c>
-      <c r="F47" s="5" t="n">
+      <c r="F47" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G47" s="5" t="n">
+      <c r="G47" s="6" t="n">
         <v>0.29</v>
       </c>
-      <c r="H47" s="5" t="n">
+      <c r="H47" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="I47" s="5" t="n">
+      <c r="I47" s="6" t="n">
         <v>-86</v>
       </c>
-      <c r="J47" s="5" t="n">
+      <c r="J47" s="6" t="n">
         <v>0.28</v>
       </c>
-      <c r="K47" s="5" t="n">
+      <c r="K47" s="6" t="n">
         <v>0.18</v>
       </c>
-      <c r="L47" s="5"/>
+      <c r="L47" s="6"/>
       <c r="M47" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O47" s="1"/>
-      <c r="P47" s="4" t="s">
-        <v>56</v>
+      <c r="P47" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="Q47" s="0" t="n">
         <v>180</v>
@@ -2745,7 +2766,7 @@
         <v>200</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>0.01</v>
@@ -2772,10 +2793,10 @@
         <v>0.22</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="0" t="n">
@@ -2802,13 +2823,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>200</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>0.001</v>
@@ -2835,10 +2856,10 @@
         <v>1.07</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="0" t="n">
@@ -2865,13 +2886,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>300</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>0.01</v>
@@ -2898,10 +2919,10 @@
         <v>1.02</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P50" s="0" t="n">
         <v>60</v>
@@ -2933,7 +2954,7 @@
         <v>100</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>0.01</v>
@@ -2960,10 +2981,10 @@
         <v>1.03</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>80</v>
@@ -2992,7 +3013,7 @@
         <v>200</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>0.01</v>
@@ -3019,10 +3040,10 @@
         <v>1.02</v>
       </c>
       <c r="M52" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="N52" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="N52" s="0" t="s">
-        <v>110</v>
       </c>
       <c r="P52" s="0" t="n">
         <v>80</v>
@@ -3051,7 +3072,7 @@
         <v>200</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>0.001</v>
@@ -3078,10 +3099,10 @@
         <v>0.42</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P53" s="0" t="n">
         <v>80</v>
@@ -3110,7 +3131,7 @@
         <v>300</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>0.001</v>
@@ -3137,10 +3158,10 @@
         <v>0.38</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>80</v>
@@ -3169,7 +3190,7 @@
         <v>300</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>0.001</v>
@@ -3196,10 +3217,10 @@
         <v>1.01</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P55" s="0" t="n">
         <v>80</v>
@@ -3223,296 +3244,251 @@
         <v>150</v>
       </c>
     </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>-104</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>-111</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="V56" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="X56" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>305</v>
+        <v>6.48</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>444</v>
+        <v>1.99</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>1.29</v>
+        <v>1.02</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>305</v>
+        <v>6.48</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>443</v>
+        <v>1.92</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>0.14</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="N57" s="0" t="s">
-        <v>23</v>
+        <v>118</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="V57" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="X57" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>-17</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J58" s="0" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="M58" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="N58" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K59" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="N59" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R59" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S59" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="T59" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="U59" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="V59" s="0" t="n">
-        <v>40</v>
-      </c>
+      <c r="N58" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1E-005</v>
+        <v>0.0001</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>-155</v>
+        <v>305</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>4.37</v>
+        <v>488</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>2.72</v>
+        <v>444</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.55</v>
+        <v>1.29</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>-171</v>
+        <v>305</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>2.12</v>
+        <v>443</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>0.49</v>
+        <v>1.29</v>
       </c>
       <c r="M60" s="0" t="s">
         <v>120</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P60" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q60" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="R60" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S60" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="T60" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="U60" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="V60" s="0" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1E-005</v>
+        <v>0.0001</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>-133</v>
+        <v>-17</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>7.32</v>
+        <v>2.64</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>3.27</v>
+        <v>3.61</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>-133</v>
+        <v>-17</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>2.21</v>
+        <v>2.91</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>0.49</v>
+        <v>0.79</v>
       </c>
       <c r="M61" s="0" t="s">
         <v>121</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="P61" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q61" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="R61" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S61" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="T61" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="U61" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="V61" s="0" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>1E-005</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>-109</v>
+        <v>4.39</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>1.99</v>
+        <v>0.149</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>3.9</v>
+        <v>2.94</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.79</v>
+        <v>0.66</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>-109</v>
+        <v>4.39</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="O62" s="1"/>
-      <c r="P62" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q62" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="R62" s="0" t="n">
         <v>100</v>
@@ -3532,742 +3508,743 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0.0001</v>
+        <v>1E-005</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>-77</v>
+        <v>-155</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>1.17</v>
+        <v>4.37</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>3.3</v>
+        <v>2.72</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>1.08</v>
+        <v>0.55</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>-77</v>
+        <v>-171</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>0.56</v>
+        <v>0.49</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="O63" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>1E-005</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>0.57</v>
+        <v>-133</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>1.2</v>
+        <v>7.32</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>2.62</v>
+        <v>3.27</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>74</v>
+        <v>0.72</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>-133</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>0.49</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>1E-005</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>-135</v>
+        <v>-109</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>4.49</v>
+        <v>1.99</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>2.72</v>
+        <v>3.9</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>74</v>
+        <v>0.79</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>-109</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>0.72</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O65" s="1"/>
+      <c r="P65" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>-165</v>
+        <v>0.0001</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>-77</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>1.51</v>
+        <v>1.17</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>74</v>
+        <v>1.08</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>-77</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>0.56</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>29</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="O66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0.01</v>
+        <v>1E-005</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>31.8</v>
+        <v>0.57</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.83</v>
+        <v>2.62</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="I67" s="0" t="n">
-        <v>-112</v>
-      </c>
-      <c r="J67" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="K67" s="0" t="n">
-        <v>0.24</v>
+        <v>0.6</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="O67" s="1"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>-135</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D68" s="0" t="n">
+      <c r="C69" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>-165</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="E68" s="0" t="n">
-        <v>-130.83</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G68" s="2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="H68" s="2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I68" s="2" t="n">
-        <v>-181</v>
-      </c>
-      <c r="J68" s="0" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K68" s="0" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M68" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="N68" s="0" t="s">
+      <c r="E70" s="0" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>-112</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M70" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="P68" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q68" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="R68" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="S68" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="T68" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="U68" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="V68" s="0" t="n">
-        <v>150</v>
-      </c>
+      <c r="N70" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="O70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>-37</v>
+        <v>-130.83</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="G71" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>-46</v>
+        <v>0.02</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>-181</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>0.98</v>
+        <v>0.43</v>
       </c>
       <c r="K71" s="0" t="n">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="M71" s="0" t="s">
         <v>137</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="P71" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>-37</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>-46</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="N74" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="P74" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="Q71" s="0" t="n">
+      <c r="Q74" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="R71" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S71" s="0" t="n">
+      <c r="R74" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S74" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="T71" s="0" t="n">
+      <c r="T74" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="U71" s="0" t="n">
+      <c r="U74" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="V71" s="0" t="n">
+      <c r="V74" s="0" t="n">
         <v>40</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E72" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>2E-005</v>
-      </c>
-      <c r="G72" s="0" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="H72" s="0" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="I72" s="0" t="n">
-        <v>-89</v>
-      </c>
-      <c r="J72" s="0" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="K72" s="0" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="M72" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="N72" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M73" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="N73" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="C75" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>2E-005</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>-89</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="M75" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="D75" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <v>-19</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G75" s="0" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="I75" s="0" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J75" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K75" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M75" s="0" t="s">
+      <c r="N75" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="N75" s="0" t="s">
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M76" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="Q75" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="R75" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="S75" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="T75" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="U75" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="E77" s="0" t="n">
-        <v>156</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="G77" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>156</v>
-      </c>
-      <c r="J77" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K77" s="0" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="M77" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="N77" s="0" t="s">
-        <v>29</v>
+      <c r="N76" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>144</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>1E-005</v>
+        <v>0.0001</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>11</v>
+        <v>-19</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>2.87</v>
+        <v>1.04</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.84</v>
+        <v>0.43</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>11</v>
+        <v>-60</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>2.67</v>
+        <v>0.92</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>0.84</v>
+        <v>0.4</v>
       </c>
       <c r="M78" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="N78" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="N78" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="E79" s="0" t="n">
-        <v>-93</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G79" s="0" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I79" s="0" t="n">
-        <v>-93</v>
-      </c>
-      <c r="J79" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K79" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M79" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="N79" s="0" t="s">
-        <v>23</v>
+      <c r="Q78" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="S78" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="T78" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="U78" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0.0001</v>
+        <v>1E-005</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>-128</v>
+        <v>156</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>1.37</v>
+        <v>0.07</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H80" s="2" t="n">
-        <v>0.37</v>
+        <v>2.5</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>0.96</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>-235</v>
+        <v>156</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>0.37</v>
+        <v>0.96</v>
       </c>
       <c r="M80" s="0" t="s">
         <v>148</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P80" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q80" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="R80" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="S80" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="T80" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="U80" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="V80" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="E81" s="2" t="n">
-        <v>-169</v>
+        <v>1E-005</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>2.06</v>
+        <v>0.16</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0.91</v>
+        <v>2.87</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.4</v>
+        <v>0.84</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>-262</v>
+        <v>11</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>0.91</v>
+        <v>2.67</v>
       </c>
       <c r="K81" s="0" t="n">
-        <v>0.39</v>
+        <v>0.84</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>149</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P81" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q81" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="R81" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="S81" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="T81" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="U81" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="V81" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>-77</v>
+        <v>-93</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>1.69</v>
+        <v>0.1</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0.82</v>
+        <v>2.31</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>-255</v>
+        <v>-93</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>0.82</v>
+        <v>2.3</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>0.36</v>
+        <v>0.75</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>150</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P82" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q82" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="R82" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="S82" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="T82" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="U82" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="V82" s="0" t="n">
-        <v>250</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>245</v>
+        <v>-128</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>2.56</v>
+        <v>1.37</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>0.44</v>
+        <v>0.9</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>0.37</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>-198</v>
+        <v>-235</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="M83" s="0" t="s">
         <v>151</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P83" s="0" t="n">
         <v>60</v>
@@ -4276,10 +4253,10 @@
         <v>80</v>
       </c>
       <c r="R83" s="0" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="S83" s="0" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="T83" s="0" t="n">
         <v>250</v>
@@ -4288,36 +4265,36 @@
         <v>250</v>
       </c>
       <c r="V83" s="0" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E84" s="0" t="n">
-        <v>32.534</v>
+        <v>0.0001</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>-169</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G84" s="2" t="n">
-        <v>0.7</v>
+        <v>2.06</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>0.91</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>-9.41</v>
+        <v>-262</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>0.51</v>
+        <v>0.91</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>0.39</v>
@@ -4326,13 +4303,13 @@
         <v>152</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="P84" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="Q84" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="R84" s="0" t="n">
         <v>150</v>
@@ -4352,52 +4329,52 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>13.6142</v>
+        <v>-77</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>0.0002</v>
+        <v>1.69</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>-33</v>
+        <v>-255</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>0.56</v>
+        <v>0.82</v>
       </c>
       <c r="K85" s="0" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="M85" s="0" t="s">
         <v>153</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="P85" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q85" s="0" t="n">
         <v>80</v>
       </c>
       <c r="R85" s="0" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="S85" s="0" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="T85" s="0" t="n">
         <v>250</v>
@@ -4406,6 +4383,183 @@
         <v>250</v>
       </c>
       <c r="V85" s="0" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>-198</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P86" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q86" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R86" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="S86" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="T86" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="U86" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="V86" s="0" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>32.534</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>-9.41</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="P87" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q87" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R87" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="S87" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T87" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="U87" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="V87" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>13.6142</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>-33</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="P88" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q88" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R88" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="S88" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T88" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="U88" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="V88" s="0" t="n">
         <v>150</v>
       </c>
     </row>
@@ -4428,7 +4582,7 @@
   <dimension ref="A1:U65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q8" activeCellId="1" sqref="49:50 Q8"/>
+      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65"/>
@@ -4442,7 +4596,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
@@ -4510,7 +4664,7 @@
         <v>2859</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>100</v>
@@ -4518,16 +4672,16 @@
       <c r="D2" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="8" t="n">
         <v>-72.9744216451</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="8" t="n">
         <v>2.18151856995E-008</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="9" t="n">
         <v>0.547500127979</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="H2" s="9" t="n">
         <v>0.352763004652</v>
       </c>
       <c r="I2" s="0" t="n">
@@ -4540,10 +4694,10 @@
         <v>0.25</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>80</v>
@@ -4572,7 +4726,7 @@
         <v>2859</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>100</v>
@@ -4580,16 +4734,16 @@
       <c r="D3" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="10" t="n">
         <v>-16.1008097466</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="10" t="n">
         <v>0.0574310974144</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="9" t="n">
         <v>0.458428587606</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="9" t="n">
         <v>0.362631518332</v>
       </c>
       <c r="I3" s="0" t="n">
@@ -4602,10 +4756,10 @@
         <v>0.25</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>150</v>
@@ -4628,7 +4782,7 @@
         <v>2859</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>100</v>
@@ -4636,16 +4790,16 @@
       <c r="D4" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="11" t="n">
         <v>-128.01782521</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="10" t="n">
         <v>1.54180443297E-006</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="12" t="n">
         <v>0.347667404597</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="12" t="n">
         <v>0.23624363446</v>
       </c>
       <c r="I4" s="0" t="n">
@@ -4658,10 +4812,10 @@
         <v>0.19</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>60</v>
@@ -4690,7 +4844,7 @@
         <v>2859</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>200</v>
@@ -4698,16 +4852,16 @@
       <c r="D5" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="10" t="n">
         <v>-89.1073535745</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="10" t="n">
         <v>0.0620076151062</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="9" t="n">
         <v>0.448429621774</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="H5" s="9" t="n">
         <v>0.274176433125</v>
       </c>
       <c r="I5" s="0" t="n">
@@ -4720,10 +4874,10 @@
         <v>0.27</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>150</v>
@@ -4746,7 +4900,7 @@
         <v>2859</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>200</v>
@@ -4754,16 +4908,16 @@
       <c r="D6" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="10" t="n">
         <v>-107.810971478</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="10" t="n">
         <v>0.00912821956224</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="10" t="n">
         <v>0.40906445299</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="10" t="n">
         <v>0.262410001805</v>
       </c>
       <c r="I6" s="0" t="n">
@@ -4776,10 +4930,10 @@
         <v>0.23</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +4941,7 @@
         <v>2859</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>300</v>
@@ -4795,16 +4949,16 @@
       <c r="D7" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="10" t="n">
         <v>-93.624105</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="10" t="n">
         <v>0.213297</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="9" t="n">
         <v>0.519</v>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="9" t="n">
         <v>0.32</v>
       </c>
       <c r="I7" s="0" t="n">
@@ -4817,10 +4971,10 @@
         <v>0.31</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>150</v>
@@ -4843,7 +4997,7 @@
         <v>2859</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>300</v>
@@ -4851,10 +5005,10 @@
       <c r="D8" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="10" t="n">
         <v>-96.47183</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="10" t="n">
         <v>0.007372</v>
       </c>
       <c r="G8" s="0" t="n">
@@ -4873,10 +5027,10 @@
         <v>0.23</v>
       </c>
       <c r="M8" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="N8" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>164</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>150</v>
@@ -4901,15 +5055,15 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>6990</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>100</v>
@@ -4917,16 +5071,16 @@
       <c r="D11" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="10" t="n">
         <v>-102.583165</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="10" t="n">
         <v>0.001287</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="9" t="n">
         <v>0.439</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="9" t="n">
         <v>0.3</v>
       </c>
       <c r="I11" s="0" t="n">
@@ -4939,10 +5093,10 @@
         <v>0.3</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4950,7 +5104,7 @@
         <v>6990</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>120</v>
@@ -4964,7 +5118,7 @@
         <v>6990</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>100</v>
@@ -4994,10 +5148,10 @@
         <v>0.14</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5005,7 +5159,7 @@
         <v>6990</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>100</v>
@@ -5035,10 +5189,10 @@
         <v>0.21</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5046,7 +5200,7 @@
         <v>7951</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>100</v>
@@ -5076,10 +5230,10 @@
         <v>0.13</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>80</v>
@@ -5108,7 +5262,7 @@
         <v>7951</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>150</v>
@@ -5138,10 +5292,10 @@
         <v>0.08</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5149,7 +5303,7 @@
         <v>7951</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>200</v>
@@ -5179,10 +5333,10 @@
         <v>0.22</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>100</v>
@@ -5205,7 +5359,7 @@
         <v>7951</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>200</v>
@@ -5235,10 +5389,10 @@
         <v>0.09</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>80</v>
@@ -5267,7 +5421,7 @@
         <v>7951</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>300</v>
@@ -5297,10 +5451,10 @@
         <v>0.11</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>80</v>
@@ -5314,7 +5468,7 @@
         <v>8292</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>100</v>
@@ -5344,10 +5498,10 @@
         <v>0.14</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5355,7 +5509,7 @@
         <v>8292</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>200</v>
@@ -5385,10 +5539,10 @@
         <v>0.19</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5396,7 +5550,7 @@
         <v>3413</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>100</v>
@@ -5426,10 +5580,10 @@
         <v>0.31</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5437,7 +5591,7 @@
         <v>3413</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>100</v>
@@ -5467,10 +5621,10 @@
         <v>0.34</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>100</v>
